--- a/biology/Zoologie/Dimidamus_leopoldi/Dimidamus_leopoldi.xlsx
+++ b/biology/Zoologie/Dimidamus_leopoldi/Dimidamus_leopoldi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dimidamus leopoldi est une espèce d'araignées aranéomorphes de la famille des Nicodamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dimidamus leopoldi est une espèce d'araignées aranéomorphes de la famille des Nicodamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée occidentale en Indonésie[1],[2]. Elle se rencontre vers le lac Angi-Gita.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Guinée occidentale en Indonésie,. Elle se rencontre vers le lac Angi-Gita.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle décrit par Harvey en 1995 mesure 5,20 mm et la femelle 5,50 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle décrit par Harvey en 1995 mesure 5,20 mm et la femelle 5,50 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Léopold de Belgique[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Léopold de Belgique.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Roewer, 1938 : Araneae. Résultats scientifiques du Voyage aux indes orientales néerlandaises de la SS. AA. RR. le Prince et la Princesse Léopold de Belgique. Mémoires du Musée Royal d'Histoire Naturelle de Belgique, vol. 3, no 19, p. 1-94.</t>
         </is>
